--- a/_aux/pastaJaneiro.xlsx
+++ b/_aux/pastaJaneiro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.teixeira\Documents\Vibraplan\p2303sw\_aux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D633329-0A4D-4E50-B593-0857D365307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174DD686-EC9F-4890-8B8E-19B19AA2DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D18F04A1-A1A6-4F1A-BD75-7D76053EDF0C}"/>
   </bookViews>
@@ -1333,9 +1333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1373,7 +1373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1479,7 +1479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1621,7 +1621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6847,10 +6847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84BDE9D-66F8-46E9-9731-F46AB3C52BD9}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,7 +6863,9 @@
       <c r="A1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="14">
+        <v>45332</v>
+      </c>
       <c r="C1" s="53">
         <v>0</v>
       </c>
@@ -6872,7 +6874,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="14">
+        <v>45337</v>
+      </c>
       <c r="C2" s="53">
         <v>0</v>
       </c>
@@ -6881,7 +6885,7 @@
       <c r="A3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="53">
         <v>0</v>
       </c>
@@ -6890,7 +6894,9 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14">
+        <v>45327</v>
+      </c>
       <c r="C4" s="54">
         <v>0</v>
       </c>
@@ -6899,7 +6905,9 @@
       <c r="A5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="14">
+        <v>45331</v>
+      </c>
       <c r="C5" s="53">
         <v>0</v>
       </c>
@@ -6908,7 +6916,9 @@
       <c r="A6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="14">
+        <v>45341</v>
+      </c>
       <c r="C6" s="53">
         <v>0</v>
       </c>
@@ -6918,7 +6928,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="14">
-        <v>45301</v>
+        <v>45341</v>
       </c>
       <c r="C7" s="45">
         <v>26</v>
@@ -6928,9 +6938,7 @@
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="14">
-        <v>45306</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="45">
         <v>0</v>
       </c>
@@ -6939,9 +6947,7 @@
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="14">
-        <v>45306</v>
-      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="45">
         <v>0</v>
       </c>
@@ -6950,7 +6956,9 @@
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="14">
+        <v>45327</v>
+      </c>
       <c r="C10" s="46">
         <v>0</v>
       </c>
@@ -6960,7 +6968,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="14">
-        <v>45296</v>
+        <v>45327</v>
       </c>
       <c r="C11" s="45">
         <v>0</v>
@@ -6971,7 +6979,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="14">
-        <v>45309</v>
+        <v>45337</v>
       </c>
       <c r="C12" s="45">
         <v>0</v>
@@ -6982,7 +6990,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="14">
-        <v>45309</v>
+        <v>45342</v>
       </c>
       <c r="C13" s="45">
         <v>0</v>
@@ -6992,7 +7000,9 @@
       <c r="A14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14">
+        <v>45342</v>
+      </c>
       <c r="C14" s="47">
         <v>0</v>
       </c>
@@ -7001,7 +7011,7 @@
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="46">
         <v>0</v>
       </c>
@@ -7010,9 +7020,7 @@
       <c r="A16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="14">
-        <v>45299</v>
-      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="45">
         <v>0</v>
       </c>
@@ -7021,8 +7029,8 @@
       <c r="A17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="14">
-        <v>45299</v>
+      <c r="B17" s="15">
+        <v>45329</v>
       </c>
       <c r="C17" s="45">
         <v>0</v>
@@ -7032,8 +7040,8 @@
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="14">
-        <v>45306</v>
+      <c r="B18" s="15">
+        <v>45329</v>
       </c>
       <c r="C18" s="45">
         <v>0</v>
@@ -7043,8 +7051,8 @@
       <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="14">
-        <v>45309</v>
+      <c r="B19" s="15">
+        <v>45343</v>
       </c>
       <c r="C19" s="45">
         <v>0</v>
@@ -7055,7 +7063,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="14">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="C20" s="45">
         <v>0</v>
@@ -7065,7 +7073,9 @@
       <c r="A21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14">
+        <v>45345</v>
+      </c>
       <c r="C21" s="47">
         <v>0</v>
       </c>
@@ -7074,7 +7084,7 @@
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="46">
         <v>0</v>
       </c>
@@ -7083,9 +7093,7 @@
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="15">
-        <v>45301</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="48">
         <v>0</v>
       </c>
@@ -7094,9 +7102,7 @@
       <c r="A24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="15">
-        <v>45301</v>
-      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="48">
         <v>0</v>
       </c>
@@ -7105,9 +7111,7 @@
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="15">
-        <v>45310</v>
-      </c>
+      <c r="B25" s="27"/>
       <c r="C25" s="48">
         <v>0</v>
       </c>
@@ -7116,9 +7120,7 @@
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="14">
-        <v>45314</v>
-      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="45">
         <v>0</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="14">
-        <v>45314</v>
+        <v>45330</v>
       </c>
       <c r="C27" s="45">
         <v>0</v>
@@ -7138,7 +7140,9 @@
       <c r="A28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="14">
+        <v>45330</v>
+      </c>
       <c r="C28" s="49">
         <v>0</v>
       </c>
@@ -7147,7 +7151,9 @@
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="14">
+        <v>45344</v>
+      </c>
       <c r="C29" s="50">
         <v>0</v>
       </c>
@@ -7156,7 +7162,9 @@
       <c r="A30" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="14">
+        <v>45349</v>
+      </c>
       <c r="C30" s="47">
         <v>0</v>
       </c>
@@ -7165,7 +7173,9 @@
       <c r="A31" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="14">
+        <v>45349</v>
+      </c>
       <c r="C31" s="51">
         <v>0</v>
       </c>
@@ -7174,7 +7184,7 @@
       <c r="A32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="17"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="46">
         <v>0</v>
       </c>
@@ -7183,9 +7193,7 @@
       <c r="A33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="14">
-        <v>45302</v>
-      </c>
+      <c r="B33" s="17"/>
       <c r="C33" s="45">
         <v>100</v>
       </c>
@@ -7195,7 +7203,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="14">
-        <v>45322</v>
+        <v>45328</v>
       </c>
       <c r="C34" s="45">
         <v>0</v>
@@ -7206,7 +7214,7 @@
         <v>130</v>
       </c>
       <c r="B35" s="14">
-        <v>45322</v>
+        <v>45328</v>
       </c>
       <c r="C35" s="45">
         <v>0</v>
@@ -7235,7 +7243,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="14">
-        <v>45302</v>
+        <v>45328</v>
       </c>
       <c r="C38" s="45">
         <v>100</v>
@@ -7246,7 +7254,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="14">
-        <v>45317</v>
+        <v>45328</v>
       </c>
       <c r="C39" s="45">
         <v>0</v>
@@ -7256,9 +7264,7 @@
       <c r="A40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="14">
-        <v>45317</v>
-      </c>
+      <c r="B40" s="27"/>
       <c r="C40" s="45">
         <v>0</v>
       </c>
@@ -7267,7 +7273,7 @@
       <c r="A41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="51">
         <v>0</v>
       </c>
@@ -7276,7 +7282,9 @@
       <c r="A42" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="14">
+        <v>45329</v>
+      </c>
       <c r="C42" s="46">
         <v>0</v>
       </c>
@@ -7286,7 +7294,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="14">
-        <v>45302</v>
+        <v>45329</v>
       </c>
       <c r="C43" s="45">
         <v>100</v>
@@ -7297,7 +7305,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="14">
-        <v>45317</v>
+        <v>45343</v>
       </c>
       <c r="C44" s="45">
         <v>0</v>
@@ -7308,7 +7316,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="14">
-        <v>45317</v>
+        <v>45348</v>
       </c>
       <c r="C45" s="45">
         <v>0</v>
@@ -7318,7 +7326,9 @@
       <c r="A46" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="14">
+        <v>45348</v>
+      </c>
       <c r="C46" s="51">
         <v>0</v>
       </c>
@@ -7327,7 +7337,7 @@
       <c r="A47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="46">
         <v>0</v>
       </c>
@@ -7336,8 +7346,8 @@
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="14">
-        <v>45302</v>
+      <c r="B48" s="15">
+        <v>45331</v>
       </c>
       <c r="C48" s="45">
         <v>100</v>
@@ -7347,8 +7357,8 @@
       <c r="A49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="14">
-        <v>45320</v>
+      <c r="B49" s="15">
+        <v>45331</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -7358,9 +7368,7 @@
       <c r="A50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="14">
-        <v>45320</v>
-      </c>
+      <c r="B50" s="17"/>
       <c r="C50" s="45">
         <v>0</v>
       </c>
@@ -7369,7 +7377,9 @@
       <c r="A51" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="27"/>
+      <c r="B51" s="14">
+        <v>45331</v>
+      </c>
       <c r="C51" s="51">
         <v>0</v>
       </c>
@@ -7378,8 +7388,8 @@
       <c r="A52" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="15">
-        <v>45322</v>
+      <c r="B52" s="14">
+        <v>45343</v>
       </c>
       <c r="C52" s="48">
         <v>0</v>
@@ -7389,8 +7399,8 @@
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="15">
-        <v>45322</v>
+      <c r="B53" s="14">
+        <v>45348</v>
       </c>
       <c r="C53" s="48">
         <v>0</v>
@@ -7400,7 +7410,9 @@
       <c r="A54" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="14">
+        <v>45348</v>
+      </c>
       <c r="C54" s="46">
         <v>0</v>
       </c>
@@ -7409,9 +7421,7 @@
       <c r="A55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="14">
-        <v>45322</v>
-      </c>
+      <c r="B55" s="27"/>
       <c r="C55" s="45">
         <v>0</v>
       </c>
@@ -7420,7 +7430,9 @@
       <c r="A56" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="15">
+        <v>45324</v>
+      </c>
       <c r="C56" s="51">
         <v>0</v>
       </c>
@@ -7429,9 +7441,7 @@
       <c r="A57" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="15">
-        <v>45322</v>
-      </c>
+      <c r="B57" s="17"/>
       <c r="C57" s="48">
         <v>0</v>
       </c>
@@ -7440,8 +7450,8 @@
       <c r="A58" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="15">
-        <v>45322</v>
+      <c r="B58" s="14">
+        <v>45324</v>
       </c>
       <c r="C58" s="48">
         <v>0</v>
@@ -7451,7 +7461,9 @@
       <c r="A59" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="17"/>
+      <c r="B59" s="14">
+        <v>45331</v>
+      </c>
       <c r="C59" s="46">
         <v>0</v>
       </c>
@@ -7461,7 +7473,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="14">
-        <v>45322</v>
+        <v>45341</v>
       </c>
       <c r="C60" s="45">
         <v>0</v>
@@ -7471,7 +7483,9 @@
       <c r="A61" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="14">
+        <v>45341</v>
+      </c>
       <c r="C61" s="47">
         <v>0</v>
       </c>
@@ -7489,7 +7503,9 @@
       <c r="A63" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="17"/>
+      <c r="B63" s="15">
+        <v>45328</v>
+      </c>
       <c r="C63" s="46">
         <v>0</v>
       </c>
@@ -7498,8 +7514,8 @@
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="14">
-        <v>45302</v>
+      <c r="B64" s="15">
+        <v>45328</v>
       </c>
       <c r="C64" s="45">
         <v>100</v>
@@ -7509,7 +7525,7 @@
       <c r="A65" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="51">
         <v>0</v>
       </c>
@@ -7518,7 +7534,9 @@
       <c r="A66" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="14">
+        <v>45328</v>
+      </c>
       <c r="C66" s="46">
         <v>0</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>14</v>
       </c>
       <c r="B67" s="14">
-        <v>45302</v>
+        <v>45338</v>
       </c>
       <c r="C67" s="45">
         <v>100</v>
@@ -7539,7 +7557,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="14">
-        <v>45317</v>
+        <v>45343</v>
       </c>
       <c r="C68" s="45">
         <v>0</v>
@@ -7550,7 +7568,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="14">
-        <v>45317</v>
+        <v>45343</v>
       </c>
       <c r="C69" s="45">
         <v>0</v>
@@ -7560,7 +7578,7 @@
       <c r="A70" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="51">
         <v>0</v>
       </c>
@@ -7569,7 +7587,7 @@
       <c r="A71" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="46">
         <v>0</v>
       </c>
@@ -7578,9 +7596,7 @@
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="14">
-        <v>45302</v>
-      </c>
+      <c r="B72" s="17"/>
       <c r="C72" s="45">
         <v>100</v>
       </c>
@@ -7589,8 +7605,8 @@
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="14">
-        <v>45317</v>
+      <c r="B73" s="15">
+        <v>45330</v>
       </c>
       <c r="C73" s="45">
         <v>0</v>
@@ -7600,8 +7616,8 @@
       <c r="A74" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="14">
-        <v>45317</v>
+      <c r="B74" s="15">
+        <v>45330</v>
       </c>
       <c r="C74" s="45">
         <v>0</v>
@@ -7611,7 +7627,9 @@
       <c r="A75" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="27"/>
+      <c r="B75" s="15">
+        <v>45344</v>
+      </c>
       <c r="C75" s="51">
         <v>0</v>
       </c>
@@ -7620,7 +7638,9 @@
       <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="17"/>
+      <c r="B76" s="14">
+        <v>45349</v>
+      </c>
       <c r="C76" s="46">
         <v>0</v>
       </c>
@@ -7630,7 +7650,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="14">
-        <v>45302</v>
+        <v>45349</v>
       </c>
       <c r="C77" s="45">
         <v>100</v>
@@ -7640,9 +7660,7 @@
       <c r="A78" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="15">
-        <v>45322</v>
-      </c>
+      <c r="B78" s="27"/>
       <c r="C78" s="48">
         <v>0</v>
       </c>
@@ -7651,9 +7669,7 @@
       <c r="A79" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="15">
-        <v>45322</v>
-      </c>
+      <c r="B79" s="17"/>
       <c r="C79" s="48">
         <v>0</v>
       </c>
@@ -7662,7 +7678,9 @@
       <c r="A80" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="16"/>
+      <c r="B80" s="14">
+        <v>45328</v>
+      </c>
       <c r="C80" s="47">
         <v>0</v>
       </c>
@@ -7671,7 +7689,9 @@
       <c r="A81" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="27"/>
+      <c r="B81" s="14">
+        <v>45328</v>
+      </c>
       <c r="C81" s="51">
         <v>0</v>
       </c>
@@ -7680,7 +7700,7 @@
       <c r="A82" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="17"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="46">
         <v>0</v>
       </c>
@@ -7689,9 +7709,7 @@
       <c r="A83" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="14">
-        <v>45302</v>
-      </c>
+      <c r="B83" s="17"/>
       <c r="C83" s="45">
         <v>100</v>
       </c>
@@ -7700,7 +7718,9 @@
       <c r="A84" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="27"/>
+      <c r="B84" s="14">
+        <v>45328</v>
+      </c>
       <c r="C84" s="51">
         <v>0</v>
       </c>
@@ -7709,7 +7729,9 @@
       <c r="A85" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="17"/>
+      <c r="B85" s="14">
+        <v>45328</v>
+      </c>
       <c r="C85" s="46">
         <v>0</v>
       </c>
@@ -7718,9 +7740,7 @@
       <c r="A86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="14">
-        <v>45302</v>
-      </c>
+      <c r="B86" s="27"/>
       <c r="C86" s="45">
         <v>100</v>
       </c>
@@ -7729,9 +7749,7 @@
       <c r="A87" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="14">
-        <v>45317</v>
-      </c>
+      <c r="B87" s="17"/>
       <c r="C87" s="45">
         <v>0</v>
       </c>
@@ -7740,8 +7758,8 @@
       <c r="A88" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="14">
-        <v>45317</v>
+      <c r="B88" s="15">
+        <v>45331</v>
       </c>
       <c r="C88" s="45">
         <v>0</v>
@@ -7751,7 +7769,9 @@
       <c r="A89" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="27"/>
+      <c r="B89" s="15">
+        <v>45331</v>
+      </c>
       <c r="C89" s="51">
         <v>0</v>
       </c>
@@ -7760,7 +7780,9 @@
       <c r="A90" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="17"/>
+      <c r="B90" s="15">
+        <v>45341</v>
+      </c>
       <c r="C90" s="46">
         <v>0</v>
       </c>
@@ -7770,7 +7792,7 @@
         <v>14</v>
       </c>
       <c r="B91" s="14">
-        <v>45302</v>
+        <v>45344</v>
       </c>
       <c r="C91" s="45">
         <v>100</v>
@@ -7781,7 +7803,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="14">
-        <v>45317</v>
+        <v>45344</v>
       </c>
       <c r="C92" s="45">
         <v>0</v>
@@ -7791,9 +7813,7 @@
       <c r="A93" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="14">
-        <v>45317</v>
-      </c>
+      <c r="B93" s="27"/>
       <c r="C93" s="45">
         <v>0</v>
       </c>
@@ -7802,7 +7822,9 @@
       <c r="A94" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="27"/>
+      <c r="B94" s="15">
+        <v>45331</v>
+      </c>
       <c r="C94" s="51">
         <v>0</v>
       </c>
@@ -7811,7 +7833,9 @@
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="17"/>
+      <c r="B95" s="15">
+        <v>45331</v>
+      </c>
       <c r="C95" s="46">
         <v>0</v>
       </c>
@@ -7820,9 +7844,7 @@
       <c r="A96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="14">
-        <v>45301</v>
-      </c>
+      <c r="B96" s="17"/>
       <c r="C96" s="45">
         <v>0</v>
       </c>
@@ -7831,7 +7853,9 @@
       <c r="A97" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B97" s="12"/>
+      <c r="B97" s="14">
+        <v>45331</v>
+      </c>
       <c r="C97" s="49">
         <v>0</v>
       </c>
@@ -7840,7 +7864,9 @@
       <c r="A98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="14">
+        <v>45343</v>
+      </c>
       <c r="C98" s="50">
         <v>0</v>
       </c>
@@ -7849,8 +7875,8 @@
       <c r="A99" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="15">
-        <v>45313</v>
+      <c r="B99" s="14">
+        <v>45348</v>
       </c>
       <c r="C99" s="48">
         <v>100</v>
@@ -7860,7 +7886,9 @@
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="14">
+        <v>45348</v>
+      </c>
       <c r="C100" s="50">
         <v>0</v>
       </c>
@@ -7869,7 +7897,7 @@
       <c r="A101" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="16"/>
+      <c r="B101" s="27"/>
       <c r="C101" s="47">
         <v>0</v>
       </c>
@@ -7878,7 +7906,9 @@
       <c r="A102" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B102" s="27"/>
+      <c r="B102" s="15">
+        <v>45330</v>
+      </c>
       <c r="C102" s="51">
         <v>0</v>
       </c>
@@ -7887,7 +7917,9 @@
       <c r="A103" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B103" s="17"/>
+      <c r="B103" s="15">
+        <v>45330</v>
+      </c>
       <c r="C103" s="46">
         <v>0</v>
       </c>
@@ -7896,9 +7928,7 @@
       <c r="A104" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="14">
-        <v>45299</v>
-      </c>
+      <c r="B104" s="17"/>
       <c r="C104" s="45">
         <v>100</v>
       </c>
@@ -7907,7 +7937,9 @@
       <c r="A105" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B105" s="27"/>
+      <c r="B105" s="14">
+        <v>45330</v>
+      </c>
       <c r="C105" s="51">
         <v>0</v>
       </c>
@@ -7916,8 +7948,8 @@
       <c r="A106" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B106" s="15">
-        <v>45310</v>
+      <c r="B106" s="14">
+        <v>45342</v>
       </c>
       <c r="C106" s="48">
         <v>100</v>
@@ -7927,8 +7959,8 @@
       <c r="A107" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="15">
-        <v>45310</v>
+      <c r="B107" s="14">
+        <v>45345</v>
       </c>
       <c r="C107" s="48">
         <v>100</v>
@@ -7938,7 +7970,9 @@
       <c r="A108" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="17"/>
+      <c r="B108" s="14">
+        <v>45345</v>
+      </c>
       <c r="C108" s="46">
         <v>0</v>
       </c>
@@ -7947,9 +7981,7 @@
       <c r="A109" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="14">
-        <v>45310</v>
-      </c>
+      <c r="B109" s="16"/>
       <c r="C109" s="45">
         <v>100</v>
       </c>
@@ -7976,8 +8008,8 @@
       <c r="A112" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="14">
-        <v>45299</v>
+      <c r="B112" s="15">
+        <v>45327</v>
       </c>
       <c r="C112" s="45">
         <v>100</v>
@@ -7987,7 +8019,9 @@
       <c r="A113" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="15">
+        <v>45327</v>
+      </c>
       <c r="C113" s="51">
         <v>0</v>
       </c>
@@ -7996,7 +8030,9 @@
       <c r="A114" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="17"/>
+      <c r="B114" s="15">
+        <v>45330</v>
+      </c>
       <c r="C114" s="46">
         <v>0</v>
       </c>
@@ -8006,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="B115" s="14">
-        <v>45299</v>
+        <v>45338</v>
       </c>
       <c r="C115" s="45">
         <v>100</v>
@@ -8016,7 +8052,9 @@
       <c r="A116" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B116" s="27"/>
+      <c r="B116" s="14">
+        <v>45338</v>
+      </c>
       <c r="C116" s="51">
         <v>0</v>
       </c>
@@ -8025,9 +8063,7 @@
       <c r="A117" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B117" s="15">
-        <v>45317</v>
-      </c>
+      <c r="B117" s="27"/>
       <c r="C117" s="48">
         <v>100</v>
       </c>
@@ -8036,7 +8072,7 @@
       <c r="A118" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B118" s="16"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="47">
         <v>0</v>
       </c>
@@ -8045,7 +8081,9 @@
       <c r="A119" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="27"/>
+      <c r="B119" s="14">
+        <v>45328</v>
+      </c>
       <c r="C119" s="51">
         <v>0</v>
       </c>
@@ -8054,7 +8092,9 @@
       <c r="A120" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="17"/>
+      <c r="B120" s="14">
+        <v>45328</v>
+      </c>
       <c r="C120" s="46">
         <v>0</v>
       </c>
@@ -8063,9 +8103,7 @@
       <c r="A121" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="14">
-        <v>45299</v>
-      </c>
+      <c r="B121" s="27"/>
       <c r="C121" s="45">
         <v>100</v>
       </c>
@@ -8074,7 +8112,7 @@
       <c r="A122" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B122" s="27"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="51">
         <v>0</v>
       </c>
@@ -8083,8 +8121,8 @@
       <c r="A123" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B123" s="15">
-        <v>45310</v>
+      <c r="B123" s="14">
+        <v>45323</v>
       </c>
       <c r="C123" s="48">
         <v>100</v>
@@ -8095,7 +8133,7 @@
         <v>161</v>
       </c>
       <c r="B124" s="15">
-        <v>45310</v>
+        <v>45331</v>
       </c>
       <c r="C124" s="48">
         <v>100</v>
@@ -8105,7 +8143,9 @@
       <c r="A125" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B125" s="17"/>
+      <c r="B125" s="15">
+        <v>45331</v>
+      </c>
       <c r="C125" s="46">
         <v>0</v>
       </c>
@@ -8114,8 +8154,8 @@
       <c r="A126" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="14">
-        <v>45310</v>
+      <c r="B126" s="15">
+        <v>45341</v>
       </c>
       <c r="C126" s="45">
         <v>100</v>
@@ -8126,7 +8166,7 @@
         <v>14</v>
       </c>
       <c r="B127" s="14">
-        <v>45317</v>
+        <v>45344</v>
       </c>
       <c r="C127" s="45">
         <v>0</v>
@@ -8137,7 +8177,7 @@
         <v>77</v>
       </c>
       <c r="B128" s="14">
-        <v>45322</v>
+        <v>45344</v>
       </c>
       <c r="C128" s="45">
         <v>0</v>
@@ -8147,9 +8187,7 @@
       <c r="A129" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B129" s="14">
-        <v>45322</v>
-      </c>
+      <c r="B129" s="27"/>
       <c r="C129" s="45">
         <v>0</v>
       </c>
@@ -8158,7 +8196,9 @@
       <c r="A130" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B130" s="27"/>
+      <c r="B130" s="15">
+        <v>45343</v>
+      </c>
       <c r="C130" s="51">
         <v>0</v>
       </c>
@@ -8167,7 +8207,9 @@
       <c r="A131" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B131" s="17"/>
+      <c r="B131" s="15">
+        <v>45344</v>
+      </c>
       <c r="C131" s="46">
         <v>0</v>
       </c>
@@ -8176,9 +8218,7 @@
       <c r="A132" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="14">
-        <v>45299</v>
-      </c>
+      <c r="B132" s="17"/>
       <c r="C132" s="45">
         <v>100</v>
       </c>
@@ -8187,7 +8227,9 @@
       <c r="A133" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="14">
+        <v>45344</v>
+      </c>
       <c r="C133" s="51">
         <v>0</v>
       </c>
@@ -8196,7 +8238,9 @@
       <c r="A134" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B134" s="17"/>
+      <c r="B134" s="14">
+        <v>45351</v>
+      </c>
       <c r="C134" s="46">
         <v>0</v>
       </c>
@@ -8205,9 +8249,7 @@
       <c r="A135" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B135" s="14">
-        <v>45299</v>
-      </c>
+      <c r="B135" s="27"/>
       <c r="C135" s="45">
         <v>100</v>
       </c>
@@ -8216,7 +8258,9 @@
       <c r="A136" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B136" s="27"/>
+      <c r="B136" s="15">
+        <v>45337</v>
+      </c>
       <c r="C136" s="51">
         <v>0</v>
       </c>
@@ -8226,7 +8270,7 @@
         <v>171</v>
       </c>
       <c r="B137" s="15">
-        <v>45317</v>
+        <v>45331</v>
       </c>
       <c r="C137" s="48">
         <v>100</v>
@@ -8236,7 +8280,7 @@
       <c r="A138" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="16"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="47">
         <v>0</v>
       </c>
@@ -8245,7 +8289,9 @@
       <c r="A139" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B139" s="27"/>
+      <c r="B139" s="14">
+        <v>45331</v>
+      </c>
       <c r="C139" s="51">
         <v>0</v>
       </c>
@@ -8254,7 +8300,9 @@
       <c r="A140" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="17"/>
+      <c r="B140" s="14">
+        <v>45343</v>
+      </c>
       <c r="C140" s="46">
         <v>0</v>
       </c>
@@ -8264,7 +8312,7 @@
         <v>12</v>
       </c>
       <c r="B141" s="14">
-        <v>45299</v>
+        <v>45348</v>
       </c>
       <c r="C141" s="45">
         <v>100</v>
@@ -8274,7 +8322,9 @@
       <c r="A142" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B142" s="27"/>
+      <c r="B142" s="14">
+        <v>45348</v>
+      </c>
       <c r="C142" s="51">
         <v>0</v>
       </c>
@@ -8283,9 +8333,7 @@
       <c r="A143" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B143" s="15">
-        <v>45310</v>
-      </c>
+      <c r="B143" s="12"/>
       <c r="C143" s="48">
         <v>100</v>
       </c>
@@ -8294,7 +8342,7 @@
       <c r="A144" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="27"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="51">
         <v>0</v>
       </c>
@@ -8303,7 +8351,7 @@
       <c r="A145" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B145" s="17"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="46">
         <v>0</v>
       </c>
@@ -8312,9 +8360,7 @@
       <c r="A146" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="14">
-        <v>45299</v>
-      </c>
+      <c r="B146" s="27"/>
       <c r="C146" s="45">
         <v>100</v>
       </c>
@@ -8323,7 +8369,7 @@
       <c r="A147" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B147" s="27"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="51">
         <v>0</v>
       </c>
@@ -8332,7 +8378,9 @@
       <c r="A148" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B148" s="17"/>
+      <c r="B148" s="14">
+        <v>45329</v>
+      </c>
       <c r="C148" s="46">
         <v>0</v>
       </c>
@@ -8342,7 +8390,7 @@
         <v>12</v>
       </c>
       <c r="B149" s="14">
-        <v>45299</v>
+        <v>45337</v>
       </c>
       <c r="C149" s="45">
         <v>100</v>
@@ -8352,7 +8400,9 @@
       <c r="A150" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B150" s="27"/>
+      <c r="B150" s="14">
+        <v>45337</v>
+      </c>
       <c r="C150" s="51">
         <v>0</v>
       </c>
@@ -8361,9 +8411,7 @@
       <c r="A151" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="15">
-        <v>45317</v>
-      </c>
+      <c r="B151" s="27"/>
       <c r="C151" s="48">
         <v>100</v>
       </c>
@@ -8372,7 +8420,7 @@
       <c r="A152" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B152" s="16"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="47">
         <v>0</v>
       </c>
@@ -8381,7 +8429,9 @@
       <c r="A153" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="27"/>
+      <c r="B153" s="14">
+        <v>45329</v>
+      </c>
       <c r="C153" s="51">
         <v>0</v>
       </c>
@@ -8390,7 +8440,9 @@
       <c r="A154" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="17"/>
+      <c r="B154" s="14">
+        <v>45337</v>
+      </c>
       <c r="C154" s="46">
         <v>0</v>
       </c>
@@ -8400,7 +8452,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="14">
-        <v>45299</v>
+        <v>45337</v>
       </c>
       <c r="C155" s="45">
         <v>100</v>
@@ -8419,9 +8471,7 @@
       <c r="A157" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="15">
-        <v>45314</v>
-      </c>
+      <c r="B157" s="17"/>
       <c r="C157" s="48">
         <v>100</v>
       </c>
@@ -8430,7 +8480,9 @@
       <c r="A158" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B158" s="27"/>
+      <c r="B158" s="14">
+        <v>45329</v>
+      </c>
       <c r="C158" s="51">
         <v>0</v>
       </c>
@@ -8439,7 +8491,9 @@
       <c r="A159" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B159" s="17"/>
+      <c r="B159" s="14">
+        <v>45337</v>
+      </c>
       <c r="C159" s="46">
         <v>0</v>
       </c>
@@ -8449,7 +8503,7 @@
         <v>12</v>
       </c>
       <c r="B160" s="14">
-        <v>45299</v>
+        <v>45337</v>
       </c>
       <c r="C160" s="45">
         <v>100</v>
@@ -8478,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="B163" s="14">
-        <v>45299</v>
+        <v>45329</v>
       </c>
       <c r="C163" s="45">
         <v>100</v>
@@ -8488,7 +8542,9 @@
       <c r="A164" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="27"/>
+      <c r="B164" s="14">
+        <v>45337</v>
+      </c>
       <c r="C164" s="51">
         <v>0</v>
       </c>
@@ -8497,8 +8553,8 @@
       <c r="A165" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="15">
-        <v>45317</v>
+      <c r="B165" s="14">
+        <v>45337</v>
       </c>
       <c r="C165" s="48">
         <v>100</v>
@@ -8508,7 +8564,7 @@
       <c r="A166" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="16"/>
+      <c r="B166" s="27"/>
       <c r="C166" s="47">
         <v>0</v>
       </c>
@@ -8517,7 +8573,7 @@
       <c r="A167" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B167" s="27"/>
+      <c r="B167" s="17"/>
       <c r="C167" s="51">
         <v>0</v>
       </c>
@@ -8526,7 +8582,9 @@
       <c r="A168" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B168" s="17"/>
+      <c r="B168" s="14">
+        <v>45329</v>
+      </c>
       <c r="C168" s="46">
         <v>0</v>
       </c>
@@ -8536,7 +8594,7 @@
         <v>12</v>
       </c>
       <c r="B169" s="14">
-        <v>45299</v>
+        <v>45337</v>
       </c>
       <c r="C169" s="45">
         <v>100</v>
@@ -8546,7 +8604,9 @@
       <c r="A170" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B170" s="27"/>
+      <c r="B170" s="14">
+        <v>45337</v>
+      </c>
       <c r="C170" s="51">
         <v>0</v>
       </c>
@@ -8555,9 +8615,7 @@
       <c r="A171" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B171" s="15">
-        <v>45316</v>
-      </c>
+      <c r="B171" s="27"/>
       <c r="C171" s="48">
         <v>100</v>
       </c>
@@ -8566,7 +8624,9 @@
       <c r="A172" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B172" s="27"/>
+      <c r="B172" s="15">
+        <v>45323</v>
+      </c>
       <c r="C172" s="51">
         <v>0</v>
       </c>
@@ -8585,7 +8645,7 @@
         <v>12</v>
       </c>
       <c r="B174" s="14">
-        <v>45299</v>
+        <v>45327</v>
       </c>
       <c r="C174" s="45">
         <v>100</v>
@@ -8595,7 +8655,9 @@
       <c r="A175" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="14">
+        <v>45331</v>
+      </c>
       <c r="C175" s="51">
         <v>0</v>
       </c>
@@ -8604,7 +8666,9 @@
       <c r="A176" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B176" s="17"/>
+      <c r="B176" s="14">
+        <v>45341</v>
+      </c>
       <c r="C176" s="46">
         <v>0</v>
       </c>
@@ -8614,7 +8678,7 @@
         <v>12</v>
       </c>
       <c r="B177" s="14">
-        <v>45299</v>
+        <v>45341</v>
       </c>
       <c r="C177" s="45">
         <v>100</v>
@@ -8624,7 +8688,7 @@
       <c r="A178" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B178" s="27"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="51">
         <v>0</v>
       </c>
@@ -8633,9 +8697,7 @@
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="15">
-        <v>45321</v>
-      </c>
+      <c r="B179" s="27"/>
       <c r="C179" s="48">
         <v>100</v>
       </c>
@@ -8644,7 +8706,7 @@
       <c r="A180" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B180" s="12"/>
+      <c r="B180" s="17"/>
       <c r="C180" s="49">
         <v>0</v>
       </c>
@@ -8653,7 +8715,9 @@
       <c r="A181" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="13"/>
+      <c r="B181" s="14">
+        <v>45329</v>
+      </c>
       <c r="C181" s="50">
         <v>0</v>
       </c>
@@ -8662,8 +8726,8 @@
       <c r="A182" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B182" s="15">
-        <v>45296</v>
+      <c r="B182" s="14">
+        <v>45337</v>
       </c>
       <c r="C182" s="48">
         <v>100</v>
@@ -8673,7 +8737,9 @@
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B183" s="13"/>
+      <c r="B183" s="14">
+        <v>45337</v>
+      </c>
       <c r="C183" s="50">
         <v>0</v>
       </c>
@@ -8682,7 +8748,7 @@
       <c r="A184" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B184" s="16"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="47">
         <v>0</v>
       </c>
@@ -8691,9 +8757,7 @@
       <c r="A185" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B185" s="15">
-        <v>45299</v>
-      </c>
+      <c r="B185" s="17"/>
       <c r="C185" s="48">
         <v>100</v>
       </c>
@@ -8702,7 +8766,9 @@
       <c r="A186" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B186" s="17"/>
+      <c r="B186" s="14">
+        <v>45329</v>
+      </c>
       <c r="C186" s="46">
         <v>0</v>
       </c>
@@ -8712,7 +8778,7 @@
         <v>12</v>
       </c>
       <c r="B187" s="14">
-        <v>45306</v>
+        <v>45337</v>
       </c>
       <c r="C187" s="45">
         <v>100</v>
@@ -8723,7 +8789,7 @@
         <v>14</v>
       </c>
       <c r="B188" s="14">
-        <v>45314</v>
+        <v>45337</v>
       </c>
       <c r="C188" s="45">
         <v>0</v>
@@ -8733,9 +8799,7 @@
       <c r="A189" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B189" s="14">
-        <v>45317</v>
-      </c>
+      <c r="B189" s="27"/>
       <c r="C189" s="45">
         <v>0</v>
       </c>
@@ -8744,9 +8808,7 @@
       <c r="A190" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B190" s="14">
-        <v>45317</v>
-      </c>
+      <c r="B190" s="17"/>
       <c r="C190" s="45">
         <v>0</v>
       </c>
@@ -8755,7 +8817,9 @@
       <c r="A191" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B191" s="16"/>
+      <c r="B191" s="14">
+        <v>45323</v>
+      </c>
       <c r="C191" s="47">
         <v>0</v>
       </c>
@@ -8764,8 +8828,8 @@
       <c r="A192" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B192" s="15">
-        <v>45299</v>
+      <c r="B192" s="14">
+        <v>45328</v>
       </c>
       <c r="C192" s="48">
         <v>100</v>
@@ -8775,8 +8839,8 @@
       <c r="A193" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B193" s="15">
-        <v>45302</v>
+      <c r="B193" s="14">
+        <v>45328</v>
       </c>
       <c r="C193" s="48">
         <v>100</v>
@@ -8786,9 +8850,7 @@
       <c r="A194" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B194" s="15">
-        <v>45303</v>
-      </c>
+      <c r="B194" s="27"/>
       <c r="C194" s="48">
         <v>100</v>
       </c>
@@ -8807,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="B196" s="14">
-        <v>45306</v>
+        <v>45329</v>
       </c>
       <c r="C196" s="45">
         <v>100</v>
@@ -8818,7 +8880,7 @@
         <v>14</v>
       </c>
       <c r="B197" s="14">
-        <v>45314</v>
+        <v>45337</v>
       </c>
       <c r="C197" s="45">
         <v>0</v>
@@ -8829,7 +8891,7 @@
         <v>77</v>
       </c>
       <c r="B198" s="14">
-        <v>45317</v>
+        <v>45337</v>
       </c>
       <c r="C198" s="45">
         <v>0</v>
@@ -8839,9 +8901,7 @@
       <c r="A199" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B199" s="14">
-        <v>45317</v>
-      </c>
+      <c r="B199" s="27"/>
       <c r="C199" s="45">
         <v>0</v>
       </c>
@@ -8850,7 +8910,7 @@
       <c r="A200" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B200" s="16"/>
+      <c r="B200" s="17"/>
       <c r="C200" s="47">
         <v>0</v>
       </c>
@@ -8859,8 +8919,8 @@
       <c r="A201" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B201" s="15">
-        <v>45306</v>
+      <c r="B201" s="14">
+        <v>45329</v>
       </c>
       <c r="C201" s="48">
         <v>100</v>
@@ -8870,7 +8930,9 @@
       <c r="A202" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="17"/>
+      <c r="B202" s="14">
+        <v>45337</v>
+      </c>
       <c r="C202" s="46">
         <v>0</v>
       </c>
@@ -8880,7 +8942,7 @@
         <v>12</v>
       </c>
       <c r="B203" s="14">
-        <v>45306</v>
+        <v>45337</v>
       </c>
       <c r="C203" s="45">
         <v>100</v>
@@ -8890,9 +8952,7 @@
       <c r="A204" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="14">
-        <v>45315</v>
-      </c>
+      <c r="B204" s="27"/>
       <c r="C204" s="45">
         <v>0</v>
       </c>
@@ -8901,8 +8961,8 @@
       <c r="A205" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B205" s="14">
-        <v>45320</v>
+      <c r="B205" s="15">
+        <v>45323</v>
       </c>
       <c r="C205" s="45">
         <v>0</v>
@@ -8912,9 +8972,7 @@
       <c r="A206" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B206" s="14">
-        <v>45320</v>
-      </c>
+      <c r="B206" s="17"/>
       <c r="C206" s="45">
         <v>0</v>
       </c>
@@ -8923,7 +8981,9 @@
       <c r="A207" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B207" s="16"/>
+      <c r="B207" s="14">
+        <v>45327</v>
+      </c>
       <c r="C207" s="47">
         <v>0</v>
       </c>
@@ -8932,8 +8992,8 @@
       <c r="A208" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B208" s="15">
-        <v>45295</v>
+      <c r="B208" s="14">
+        <v>45331</v>
       </c>
       <c r="C208" s="48">
         <v>100</v>
@@ -8943,8 +9003,8 @@
       <c r="A209" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B209" s="15">
-        <v>45300</v>
+      <c r="B209" s="14">
+        <v>45341</v>
       </c>
       <c r="C209" s="48">
         <v>100</v>
@@ -8954,8 +9014,8 @@
       <c r="A210" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B210" s="15">
-        <v>45306</v>
+      <c r="B210" s="14">
+        <v>45341</v>
       </c>
       <c r="C210" s="48">
         <v>100</v>
@@ -8965,7 +9025,7 @@
       <c r="A211" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B211" s="17"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="46">
         <v>0</v>
       </c>
@@ -8974,9 +9034,7 @@
       <c r="A212" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="14">
-        <v>45306</v>
-      </c>
+      <c r="B212" s="27"/>
       <c r="C212" s="45">
         <v>100</v>
       </c>
@@ -8985,9 +9043,7 @@
       <c r="A213" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B213" s="14">
-        <v>45315</v>
-      </c>
+      <c r="B213" s="17"/>
       <c r="C213" s="45">
         <v>0</v>
       </c>
@@ -8997,7 +9053,7 @@
         <v>77</v>
       </c>
       <c r="B214" s="14">
-        <v>45320</v>
+        <v>45329</v>
       </c>
       <c r="C214" s="45">
         <v>0</v>
@@ -9008,7 +9064,7 @@
         <v>68</v>
       </c>
       <c r="B215" s="14">
-        <v>45320</v>
+        <v>45337</v>
       </c>
       <c r="C215" s="45">
         <v>0</v>
@@ -9018,7 +9074,9 @@
       <c r="A216" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B216" s="12"/>
+      <c r="B216" s="14">
+        <v>45337</v>
+      </c>
       <c r="C216" s="49">
         <v>0</v>
       </c>
@@ -9027,7 +9085,7 @@
       <c r="A217" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="13"/>
+      <c r="B217" s="27"/>
       <c r="C217" s="50">
         <v>0</v>
       </c>
@@ -9037,7 +9095,7 @@
         <v>194</v>
       </c>
       <c r="B218" s="15">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="C218" s="48">
         <v>100</v>
@@ -9047,7 +9105,7 @@
       <c r="A219" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B219" s="11"/>
+      <c r="B219" s="17"/>
       <c r="C219" s="52">
         <v>0</v>
       </c>
@@ -9056,7 +9114,9 @@
       <c r="A220" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B220" s="12"/>
+      <c r="B220" s="14">
+        <v>45327</v>
+      </c>
       <c r="C220" s="49">
         <v>0</v>
       </c>
@@ -9065,7 +9125,9 @@
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B221" s="13"/>
+      <c r="B221" s="14">
+        <v>45331</v>
+      </c>
       <c r="C221" s="50">
         <v>0</v>
       </c>
@@ -9074,8 +9136,8 @@
       <c r="A222" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B222" s="15">
-        <v>45299</v>
+      <c r="B222" s="14">
+        <v>45341</v>
       </c>
       <c r="C222" s="48">
         <v>80</v>
@@ -9085,8 +9147,8 @@
       <c r="A223" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B223" s="15">
-        <v>45302</v>
+      <c r="B223" s="14">
+        <v>45341</v>
       </c>
       <c r="C223" s="48">
         <v>0</v>
@@ -9096,9 +9158,7 @@
       <c r="A224" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B224" s="15">
-        <v>45303</v>
-      </c>
+      <c r="B224" s="27"/>
       <c r="C224" s="48">
         <v>0</v>
       </c>
@@ -9117,7 +9177,7 @@
         <v>12</v>
       </c>
       <c r="B226" s="14">
-        <v>45306</v>
+        <v>45329</v>
       </c>
       <c r="C226" s="45">
         <v>0</v>
@@ -9128,7 +9188,7 @@
         <v>14</v>
       </c>
       <c r="B227" s="14">
-        <v>45321</v>
+        <v>45337</v>
       </c>
       <c r="C227" s="45">
         <v>0</v>
@@ -9138,7 +9198,9 @@
       <c r="A228" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B228" s="12"/>
+      <c r="B228" s="14">
+        <v>45337</v>
+      </c>
       <c r="C228" s="49">
         <v>0</v>
       </c>
@@ -9147,7 +9209,7 @@
       <c r="A229" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B229" s="13"/>
+      <c r="B229" s="27"/>
       <c r="C229" s="50">
         <v>0</v>
       </c>
@@ -9166,7 +9228,7 @@
         <v>14</v>
       </c>
       <c r="B231" s="14">
-        <v>45293</v>
+        <v>45329</v>
       </c>
       <c r="C231" s="45">
         <v>0</v>
@@ -9177,7 +9239,7 @@
         <v>77</v>
       </c>
       <c r="B232" s="14">
-        <v>45296</v>
+        <v>45337</v>
       </c>
       <c r="C232" s="45">
         <v>0</v>
@@ -9188,7 +9250,7 @@
         <v>68</v>
       </c>
       <c r="B233" s="14">
-        <v>45296</v>
+        <v>45337</v>
       </c>
       <c r="C233" s="45">
         <v>0</v>
@@ -9198,7 +9260,7 @@
       <c r="A234" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B234" s="12"/>
+      <c r="B234" s="27"/>
       <c r="C234" s="49">
         <v>0</v>
       </c>
@@ -9207,7 +9269,9 @@
       <c r="A235" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B235" s="13"/>
+      <c r="B235" s="15">
+        <v>45324</v>
+      </c>
       <c r="C235" s="50">
         <v>0</v>
       </c>
@@ -9216,9 +9280,7 @@
       <c r="A236" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B236" s="15">
-        <v>45303</v>
-      </c>
+      <c r="B236" s="17"/>
       <c r="C236" s="48">
         <v>0</v>
       </c>
@@ -9227,8 +9289,8 @@
       <c r="A237" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B237" s="15">
-        <v>45307</v>
+      <c r="B237" s="14">
+        <v>45327</v>
       </c>
       <c r="C237" s="48">
         <v>0</v>
@@ -9238,7 +9300,9 @@
       <c r="A238" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B238" s="17"/>
+      <c r="B238" s="14">
+        <v>45331</v>
+      </c>
       <c r="C238" s="46">
         <v>0</v>
       </c>
@@ -9248,7 +9312,7 @@
         <v>12</v>
       </c>
       <c r="B239" s="14">
-        <v>45308</v>
+        <v>45341</v>
       </c>
       <c r="C239" s="45">
         <v>0</v>
@@ -9259,7 +9323,7 @@
         <v>14</v>
       </c>
       <c r="B240" s="14">
-        <v>45317</v>
+        <v>45341</v>
       </c>
       <c r="C240" s="45">
         <v>0</v>
@@ -9269,9 +9333,7 @@
       <c r="A241" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B241" s="14">
-        <v>45322</v>
-      </c>
+      <c r="B241" s="16"/>
       <c r="C241" s="45">
         <v>0</v>
       </c>
@@ -9280,9 +9342,7 @@
       <c r="A242" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B242" s="14">
-        <v>45322</v>
-      </c>
+      <c r="B242" s="27"/>
       <c r="C242" s="45">
         <v>0</v>
       </c>
@@ -9291,7 +9351,7 @@
       <c r="A243" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B243" s="11"/>
+      <c r="B243" s="17"/>
       <c r="C243" s="52">
         <v>0</v>
       </c>
@@ -9300,7 +9360,9 @@
       <c r="A244" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B244" s="12"/>
+      <c r="B244" s="14">
+        <v>45329</v>
+      </c>
       <c r="C244" s="49">
         <v>0</v>
       </c>
@@ -9309,7 +9371,9 @@
       <c r="A245" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B245" s="16"/>
+      <c r="B245" s="14">
+        <v>45337</v>
+      </c>
       <c r="C245" s="47">
         <v>0</v>
       </c>
@@ -9318,8 +9382,8 @@
       <c r="A246" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B246" s="15">
-        <v>45308</v>
+      <c r="B246" s="14">
+        <v>45337</v>
       </c>
       <c r="C246" s="48">
         <v>0</v>
@@ -9329,9 +9393,7 @@
       <c r="A247" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B247" s="15">
-        <v>45309</v>
-      </c>
+      <c r="B247" s="27"/>
       <c r="C247" s="48">
         <v>0</v>
       </c>
@@ -9340,9 +9402,7 @@
       <c r="A248" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B248" s="15">
-        <v>45310</v>
-      </c>
+      <c r="B248" s="17"/>
       <c r="C248" s="48">
         <v>0</v>
       </c>
@@ -9351,8 +9411,8 @@
       <c r="A249" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B249" s="15">
-        <v>45314</v>
+      <c r="B249" s="14">
+        <v>45329</v>
       </c>
       <c r="C249" s="48">
         <v>0</v>
@@ -9362,8 +9422,8 @@
       <c r="A250" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B250" s="15">
-        <v>45316</v>
+      <c r="B250" s="14">
+        <v>45337</v>
       </c>
       <c r="C250" s="48">
         <v>0</v>
@@ -9373,7 +9433,9 @@
       <c r="A251" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B251" s="11"/>
+      <c r="B251" s="14">
+        <v>45337</v>
+      </c>
       <c r="C251" s="52">
         <v>0</v>
       </c>
@@ -9382,7 +9444,7 @@
       <c r="A252" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B252" s="12"/>
+      <c r="B252" s="27"/>
       <c r="C252" s="49">
         <v>0</v>
       </c>
@@ -9391,7 +9453,9 @@
       <c r="A253" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="13"/>
+      <c r="B253" s="15">
+        <v>45324</v>
+      </c>
       <c r="C253" s="50">
         <v>0</v>
       </c>
@@ -9400,7 +9464,7 @@
       <c r="A254" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B254" s="16"/>
+      <c r="B254" s="17"/>
       <c r="C254" s="47">
         <v>0</v>
       </c>
@@ -9409,7 +9473,9 @@
       <c r="A255" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B255" s="17"/>
+      <c r="B255" s="14">
+        <v>45327</v>
+      </c>
       <c r="C255" s="46">
         <v>0</v>
       </c>
@@ -9419,7 +9485,7 @@
         <v>14</v>
       </c>
       <c r="B256" s="14">
-        <v>45295</v>
+        <v>45331</v>
       </c>
       <c r="C256" s="45">
         <v>0</v>
@@ -9430,7 +9496,7 @@
         <v>77</v>
       </c>
       <c r="B257" s="14">
-        <v>45300</v>
+        <v>45341</v>
       </c>
       <c r="C257" s="45">
         <v>0</v>
@@ -9441,7 +9507,7 @@
         <v>68</v>
       </c>
       <c r="B258" s="14">
-        <v>45300</v>
+        <v>45341</v>
       </c>
       <c r="C258" s="45">
         <v>0</v>
@@ -9451,7 +9517,7 @@
       <c r="A259" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B259" s="13"/>
+      <c r="B259" s="27"/>
       <c r="C259" s="50">
         <v>0</v>
       </c>
@@ -9460,9 +9526,7 @@
       <c r="A260" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B260" s="15">
-        <v>45293</v>
-      </c>
+      <c r="B260" s="17"/>
       <c r="C260" s="48">
         <v>0</v>
       </c>
@@ -9471,7 +9535,9 @@
       <c r="A261" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B261" s="17"/>
+      <c r="B261" s="14">
+        <v>45329</v>
+      </c>
       <c r="C261" s="46">
         <v>0</v>
       </c>
@@ -9481,7 +9547,7 @@
         <v>12</v>
       </c>
       <c r="B262" s="14">
-        <v>45293</v>
+        <v>45337</v>
       </c>
       <c r="C262" s="45">
         <v>0</v>
@@ -9492,7 +9558,7 @@
         <v>14</v>
       </c>
       <c r="B263" s="14">
-        <v>45302</v>
+        <v>45337</v>
       </c>
       <c r="C263" s="45">
         <v>0</v>
@@ -9502,9 +9568,7 @@
       <c r="A264" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B264" s="14">
-        <v>45307</v>
-      </c>
+      <c r="B264" s="27"/>
       <c r="C264" s="45">
         <v>0</v>
       </c>
@@ -9513,11 +9577,490 @@
       <c r="A265" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B265" s="14">
-        <v>45307</v>
-      </c>
+      <c r="B265" s="17"/>
       <c r="C265" s="45">
         <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="27"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="15">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="17"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="14">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="14">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="14">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="14">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="16"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="27"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="17"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="27"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="17"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="27"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="15">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="17"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="14">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="14">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="14">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="14">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="27"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="17"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="27"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="17"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="27"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="15">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="17"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="14">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="14">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="14">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="14">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="12"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="13"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="16"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="17"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="14">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="14">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="16"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="17"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="16"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="17"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="16"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="17"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="12"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="13"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="15">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="15">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="15">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="11"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="12"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="13"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="17"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="14">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="12"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="13"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="15">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="15">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="15">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="17"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="14">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="14">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="12"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="13"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="15">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="15">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="17"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="14">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="14">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="14">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="14">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="11"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="12"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="16"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="15">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="15">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="15">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="15">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="15">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="11"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="12"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="13"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="16"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="17"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="14">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="14">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="14">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="13"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="15">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="17"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="14">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="14">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="14">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="14">
+        <v>45342</v>
       </c>
     </row>
   </sheetData>
